--- a/data/unchecked/manual_collect/china/aomen/aomenCaseStatistics_20200220.xlsx
+++ b/data/unchecked/manual_collect/china/aomen/aomenCaseStatistics_20200220.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\新型肺炎\2月21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\215\COVID-19\data\unchecked\manual_collect\china\aomen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA42A3-7602-4211-AE07-2F4E8296FAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D70241-006D-42A9-A1F3-273912952CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9237" uniqueCount="3302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9235" uniqueCount="3301">
   <si>
     <t>统计级别</t>
   </si>
@@ -10318,10 +10318,6 @@
   </si>
   <si>
     <t>澳门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/2/120  0:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10794,8 +10790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
@@ -10963,8 +10959,8 @@
       <c r="B2" s="12" t="s">
         <v>3296</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3300</v>
+      <c r="C2" s="14">
+        <v>43881</v>
       </c>
       <c r="D2" s="14">
         <v>43882</v>
@@ -10998,7 +10994,7 @@
         <v>43882.416666666664</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>3295</v>
@@ -11026,8 +11022,8 @@
       <c r="B3" s="12" t="s">
         <v>3298</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>3300</v>
+      <c r="C3" s="14">
+        <v>43881</v>
       </c>
       <c r="D3" s="14">
         <v>43882</v>
@@ -11063,7 +11059,7 @@
         <v>43882.416666666664</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>3295</v>
